--- a/xlsx/光碟_intext.xlsx
+++ b/xlsx/光碟_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>光碟</t>
   </si>
@@ -29,7 +29,7 @@
     <t>光盘制作</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_光碟</t>
+    <t>政策_政策_维基百科_光碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%9B%98%E9%A9%B1%E5%8A%A8%E5%99%A8</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%A2%9F%E7%87%92%E9%8C%84%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>光碟燒錄技術</t>
+    <t>光碟烧录技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E5%85%89%E5%85%89%E7%9B%98</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B3%E5%B0%84%E5%BD%B1%E7%A2%9F</t>
   </si>
   <si>
-    <t>鐳射影碟</t>
+    <t>镭射影碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%AF%86%E5%BA%A6%E5%85%89%E7%A2%9F</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%99%B9%E6%9B%B8</t>
   </si>
   <si>
-    <t>彩虹書</t>
+    <t>彩虹书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_9660</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E6%AF%94</t>
   </si>
   <si>
-    <t>類比</t>
+    <t>类比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E5%85%89</t>
@@ -347,25 +347,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%84%E9%9F%B3%E5%B8%B6</t>
   </si>
   <si>
-    <t>錄音帶</t>
+    <t>录音带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%A8%8A</t>
   </si>
   <si>
-    <t>音訊</t>
+    <t>音讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E8%A8%8A%E8%99%9F</t>
   </si>
   <si>
-    <t>數碼訊號</t>
+    <t>数码讯号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E7%A2%BC%E5%99%A8</t>
   </si>
   <si>
-    <t>解碼器</t>
+    <t>解码器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PVD</t>
@@ -443,19 +443,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E9%9F%B3%E9%9B%99%E9%9D%A2%E7%A2%9F</t>
   </si>
   <si>
-    <t>影音雙面碟</t>
+    <t>影音双面碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%AA%92%E9%AB%94%E5%85%89%E7%A2%9F</t>
   </si>
   <si>
-    <t>通用媒體光碟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%85%89%E5%85%89%E7%A2%9F</t>
   </si>
   <si>
-    <t>藍光光碟</t>
+    <t>蓝光光碟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CBHD</t>
@@ -509,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>貴金屬</t>
+    <t>贵金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2</t>
   </si>
   <si>
-    <t>行政院環境保護署</t>
+    <t>行政院环境保护署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -3125,7 +3122,7 @@
         <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3180,10 +3177,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" t="s">
         <v>145</v>
-      </c>
-      <c r="F80" t="s">
-        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3238,10 +3235,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" t="s">
         <v>147</v>
-      </c>
-      <c r="F82" t="s">
-        <v>148</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3267,10 +3264,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" t="s">
         <v>149</v>
-      </c>
-      <c r="F83" t="s">
-        <v>150</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -3296,10 +3293,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" t="s">
         <v>151</v>
-      </c>
-      <c r="F84" t="s">
-        <v>152</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3325,10 +3322,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" t="s">
         <v>153</v>
-      </c>
-      <c r="F85" t="s">
-        <v>154</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3354,10 +3351,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>154</v>
+      </c>
+      <c r="F86" t="s">
         <v>155</v>
-      </c>
-      <c r="F86" t="s">
-        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>34</v>
@@ -3383,10 +3380,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" t="s">
         <v>157</v>
-      </c>
-      <c r="F87" t="s">
-        <v>158</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3412,10 +3409,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>158</v>
+      </c>
+      <c r="F88" t="s">
         <v>159</v>
-      </c>
-      <c r="F88" t="s">
-        <v>160</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3441,10 +3438,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" t="s">
         <v>161</v>
-      </c>
-      <c r="F89" t="s">
-        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>76</v>
@@ -3470,10 +3467,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" t="s">
         <v>163</v>
-      </c>
-      <c r="F90" t="s">
-        <v>164</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3499,10 +3496,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>164</v>
+      </c>
+      <c r="F91" t="s">
         <v>165</v>
-      </c>
-      <c r="F91" t="s">
-        <v>166</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -3528,10 +3525,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F92" t="s">
         <v>167</v>
-      </c>
-      <c r="F92" t="s">
-        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
